--- a/app/handle/dir_save/TrichXuatThongTin.xlsx
+++ b/app/handle/dir_save/TrichXuatThongTin.xlsx
@@ -441,14 +441,14 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>expire_date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>recent_location</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>expire_date</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>name</t>
@@ -466,49 +466,49 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>origin_location</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>gender</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>origin_location</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>issue_place</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>issue_date</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>issue_place</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>042305009950</t>
+          <t>049300009355</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lâm Trung Thủy, Đức Thọ, Hà Tĩnh</t>
+          <t>14/05/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08/09/2030</t>
+          <t>Trung Toàn 1 Tam Quang, Núi Thành, Quảng Nam</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VỖ THỊ MỀN</t>
+          <t>ĐINH THỊ TÚ TRANG</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>14/05/2000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -518,22 +518,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Tam Quang, Núi Thành, Quảng Nam</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Lâm Trung Thủy, Đức Thọ, Hà Tĩnh</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>06/05/202</t>
+          <t>CỤC TRƯỞNG CỤC CẢNH SÁT QUẢN LÝ HÀNH CHÍNH VỀ TRẬT TỰ XÃ HỘI</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>CỤC TRƯỞNG CỤC CẢNH SÁT QUẢN LÝ HÀNH CHÍNH VỀ TRẬT TỰ XÃ HỘI</t>
+          <t>15/08/2021</t>
         </is>
       </c>
     </row>

--- a/app/handle/dir_save/TrichXuatThongTin.xlsx
+++ b/app/handle/dir_save/TrichXuatThongTin.xlsx
@@ -441,32 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>origin_location</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recent_location</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>nationality</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>birth_day</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>expire_date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>recent_location</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>birth_day</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>nationality</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>origin_location</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -488,37 +488,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>049300009355</t>
+          <t>004181004072</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14/05/2025</t>
+          <t>Xuân Trường, Nam Định</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Trung Toàn 1 Tam Quang, Núi Thành, Quảng Nam</t>
+          <t>NGUYỄN LÊ DUNG</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ĐINH THỊ TÚ TRANG</t>
+          <t>Tổ 4 Phú Xá, TP Thái Nguyên, Thái Nguyền</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>14/05/2000</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
+          <t>08/08/1981</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tam Quang, Núi Thành, Quảng Nam</t>
+          <t>08/08/2041</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>15/08/2021</t>
+          <t>1504/2021</t>
         </is>
       </c>
     </row>

--- a/app/handle/dir_save/TrichXuatThongTin.xlsx
+++ b/app/handle/dir_save/TrichXuatThongTin.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>recent_location</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>origin_location</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>birth_day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>expire_date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>origin_location</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>recent_location</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>nationality</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>birth_day</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>expire_date</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -488,42 +488,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>004181004072</t>
+          <t>PHAN VĂN MANH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Xuân Trường, Nam Định</t>
+          <t>Thôn Lưỡng 2 Trung Kiên, Yên Lạc, Vĩnh Phúc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NGUYỄN LÊ DUNG</t>
+          <t>Trung Kiên, Yên Lạc, Vĩnh Phúc</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tổ 4 Phú Xá, TP Thái Nguyên, Thái Nguyền</t>
+          <t>23/08/2005</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>23/08/2030</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>026205000366</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Việt Nam</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>08/08/1981</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>08/08/2041</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1504/2021</t>
+          <t>11/03/2021</t>
         </is>
       </c>
     </row>

--- a/app/handle/dir_save/TrichXuatThongTin.xlsx
+++ b/app/handle/dir_save/TrichXuatThongTin.xlsx
@@ -441,37 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>expire_date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>birth_day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>nationality</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>recent_location</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>origin_location</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>birth_day</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>expire_date</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>nationality</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -488,42 +488,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PHAN VĂN MANH</t>
+          <t>VỖ THỊ MỀN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thôn Lưỡng 2 Trung Kiên, Yên Lạc, Vĩnh Phúc</t>
+          <t>042305009950</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Trung Kiên, Yên Lạc, Vĩnh Phúc</t>
+          <t>08/09/2030</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23/08/2030</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>026205000366</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
+          <t>Lâm Trung Thủy, Đức Thọ, Hà Tĩnh</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Lâm Trung Thủy, Đức Thọ, Hà Tĩnh</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>11/03/2021</t>
+          <t>13/05/2021</t>
         </is>
       </c>
     </row>

--- a/app/handle/dir_save/TrichXuatThongTin.xlsx
+++ b/app/handle/dir_save/TrichXuatThongTin.xlsx
@@ -441,37 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>expire_date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>birth_day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>nationality</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>recent_location</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>origin_location</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>birth_day</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>expire_date</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>nationality</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -488,42 +488,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PHAN VĂN MANH</t>
+          <t>LÊ HỒNG SƠN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thôn Lưỡng 2 Trung Kiên, Yên Lạc, Vĩnh Phúc</t>
+          <t>030202006686</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Trung Kiên, Yên Lạc, Vĩnh Phúc</t>
+          <t>17/05/2027</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23/08/2005</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23/08/2030</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>026205000366</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
+          <t>TDP SỐ 1 Xã Miêu Nha, Tây Mỗ, Nam Từ Liêm, Hà Nội Nội</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Xã Tân Quang, Ninh Giang, Hải Dương</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>11/03/2021</t>
+          <t>15/08/2021</t>
         </is>
       </c>
     </row>

--- a/app/handle/dir_save/TrichXuatThongTin.xlsx
+++ b/app/handle/dir_save/TrichXuatThongTin.xlsx
@@ -441,37 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>expire_date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>birth_day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>nationality</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>recent_location</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>origin_location</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>birth_day</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>expire_date</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>nationality</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -488,42 +488,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PHAN VĂN MANH</t>
+          <t>VŨ KIM QUÝ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thôn Lưỡng 2 Trung Kiên, Yên Lạc, Vĩnh Phúc</t>
+          <t>033206007176</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Trung Kiên, Yên Lạc, Vĩnh Phúc</t>
+          <t>19/06/2031</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23/08/2005</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23/08/2030</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>026205000366</t>
+          <t>Việt Nam</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
+          <t>Thôn Lương Tài Lương Tài, Văn Lâm, Hưng Yên</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Lương Tài, Văn Lâm, Hưng Yên</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>11/03/2021</t>
+          <t>1504/2021</t>
         </is>
       </c>
     </row>

--- a/app/handle/dir_save/TrichXuatThongTin.xlsx
+++ b/app/handle/dir_save/TrichXuatThongTin.xlsx
@@ -488,42 +488,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>VŨ KIM QUÝ</t>
+          <t>NGUYỄN VĂN THỊNH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>033206007176</t>
+          <t>052202005346</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19/06/2031</t>
+          <t>reassome</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>caseness</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nsm</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Việt Nam</t>
+          <t>Và Nam</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Thôn Lương Tài Lương Tài, Văn Lâm, Hưng Yên</t>
+          <t>Esymphonic Bình 0nh, Thị xã An Nhon Enh Đình</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Lương Tài, Văn Lâm, Hưng Yên</t>
+          <t>Thị Tranh Och Thị Mài Nhon Bịs Ont Thánh</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1504/2021</t>
+          <t>07/03/2022</t>
         </is>
       </c>
     </row>
